--- a/data/trans_orig/IP07C25_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C25_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5718DD15-2EA0-4FAF-A43F-E7660007EB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05FC13C4-CE87-4973-9E43-A36402A8D3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{890C8DD3-F79D-4841-98EE-055F263CBEF2}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{05F87F1A-E230-43C8-B088-4D3DFAC93B56}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,183 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
     <t>Moderadamente</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>Mucho</t>
   </si>
   <si>
     <t>Muchísimo</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
     <t>11,47%</t>
   </si>
   <si>
@@ -170,160 +326,46 @@
     <t>54,42%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>11,45%</t>
@@ -405,48 +447,6 @@
   </si>
   <si>
     <t>55,19%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC276FCA-07EE-4784-856A-A71C1FFD1750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E13226-24A2-4A79-AEA5-EAD773501F76}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1228,10 +1228,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>25904</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1243,34 +1243,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>21365</v>
+        <v>428</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>428</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>46</v>
-      </c>
-      <c r="N10" s="7">
-        <v>47269</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1279,49 +1279,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>76951</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>64756</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>141706</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,49 +1330,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>115269</v>
+        <v>4595</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>79205</v>
+        <v>690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>194474</v>
+        <v>5285</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1381,49 +1381,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>586</v>
+        <v>14210</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>1150</v>
+        <v>14353</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>1736</v>
+        <v>28564</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1432,49 +1432,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>7095</v>
+        <v>21846</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="7">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7">
+        <v>18529</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="7">
+        <v>49</v>
+      </c>
+      <c r="N14" s="7">
+        <v>40375</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2069</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="7">
-        <v>12</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9163</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1483,102 +1483,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7">
-        <v>225805</v>
+        <v>40651</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>168545</v>
+        <v>34001</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>483</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>394349</v>
+        <v>74652</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>4595</v>
+        <v>586</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>690</v>
+        <v>1150</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>5285</v>
+        <v>1736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,49 +1587,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>14210</v>
+        <v>7095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>14353</v>
+        <v>2069</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>28564</v>
+        <v>9163</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,46 +1641,46 @@
         <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>21846</v>
+        <v>25904</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>18529</v>
+        <v>21365</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="M18" s="7">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N18" s="7">
-        <v>40375</v>
+        <v>47269</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,49 +1689,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>76951</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="I19" s="7">
-        <v>428</v>
+        <v>64756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="N19" s="7">
-        <v>428</v>
+        <v>141706</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,13 +1740,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>115269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>88</v>
@@ -1755,31 +1755,31 @@
         <v>89</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>79205</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="7">
+        <v>225</v>
+      </c>
+      <c r="N20" s="7">
+        <v>194474</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>95</v>
@@ -1791,49 +1791,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>40651</v>
+        <v>225805</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="I21" s="7">
-        <v>34001</v>
+        <v>168545</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>93</v>
+        <v>483</v>
       </c>
       <c r="N21" s="7">
-        <v>74652</v>
+        <v>394349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,49 +1844,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>30499</v>
+        <v>586</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1578</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="7">
-        <v>22</v>
-      </c>
-      <c r="I22" s="7">
-        <v>22055</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2164</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="7">
-        <v>53</v>
-      </c>
-      <c r="N22" s="7">
-        <v>52554</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,49 +1895,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>91161</v>
+        <v>7095</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2069</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="7">
-        <v>114</v>
-      </c>
-      <c r="I23" s="7">
-        <v>79110</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>12</v>
+      </c>
+      <c r="N23" s="7">
+        <v>9163</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" s="7">
-        <v>234</v>
-      </c>
-      <c r="N23" s="7">
-        <v>170270</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,49 +1946,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="D24" s="7">
-        <v>137114</v>
+        <v>30499</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="7">
+        <v>22</v>
+      </c>
+      <c r="I24" s="7">
+        <v>22055</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>53</v>
+      </c>
+      <c r="N24" s="7">
+        <v>52554</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="7">
-        <v>128</v>
-      </c>
-      <c r="I24" s="7">
-        <v>97735</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M24" s="7">
-        <v>274</v>
-      </c>
-      <c r="N24" s="7">
-        <v>234849</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,49 +1997,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D25" s="7">
-        <v>586</v>
+        <v>91161</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="7">
+        <v>114</v>
+      </c>
+      <c r="I25" s="7">
+        <v>79110</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1578</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>234</v>
+      </c>
+      <c r="N25" s="7">
+        <v>170270</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2164</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,49 +2048,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="D26" s="7">
-        <v>7095</v>
+        <v>137114</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>128</v>
+      </c>
+      <c r="I26" s="7">
+        <v>97735</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H26" s="7">
-        <v>4</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2069</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>274</v>
+      </c>
+      <c r="N26" s="7">
+        <v>234849</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M26" s="7">
-        <v>12</v>
-      </c>
-      <c r="N26" s="7">
-        <v>9163</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,13 +2105,13 @@
         <v>266455</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -2120,13 +2120,13 @@
         <v>202546</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>576</v>
@@ -2135,13 +2135,13 @@
         <v>469001</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C25_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C25_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05FC13C4-CE87-4973-9E43-A36402A8D3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF1E5BCC-7D5D-435E-A817-70B99AAB4408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{05F87F1A-E230-43C8-B088-4D3DFAC93B56}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{286A5F7B-80AB-4D71-854F-9434A8B17AE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="145">
   <si>
     <t>Menores según frecuencia de ir bien en el colegio en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -65,28 +65,121 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,358 +188,289 @@
     <t>0%</t>
   </si>
   <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,15%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>3,82%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -457,7 +481,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -553,39 +577,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -637,7 +661,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -748,13 +772,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -763,6 +780,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -827,19 +851,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E13226-24A2-4A79-AEA5-EAD773501F76}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF8498D-E80C-43A2-B1DD-1A89640AA06A}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1230,47 +1274,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1281,47 +1319,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,49 +1362,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1381,49 +1407,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
-      </c>
-      <c r="D13" s="7">
-        <v>14210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>14353</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
-      </c>
-      <c r="N13" s="7">
-        <v>28564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1432,49 +1452,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
-      </c>
-      <c r="D14" s="7">
-        <v>21846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
-      </c>
-      <c r="I14" s="7">
-        <v>18529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>49</v>
-      </c>
-      <c r="N14" s="7">
-        <v>40375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1483,102 +1497,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>48</v>
-      </c>
-      <c r="D15" s="7">
-        <v>40651</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>34001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>93</v>
-      </c>
-      <c r="N15" s="7">
-        <v>74652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>586</v>
+        <v>50962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="I16" s="7">
-        <v>1150</v>
+        <v>37268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="N16" s="7">
-        <v>1736</v>
+        <v>88231</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,49 +1595,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>7095</v>
+        <v>36785</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>2069</v>
+        <v>31890</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="N17" s="7">
-        <v>9163</v>
+        <v>68675</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,49 +1646,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>25904</v>
+        <v>8102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>21365</v>
+        <v>2078</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>47269</v>
+        <v>10180</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,49 +1697,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>76951</v>
+        <v>2775</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>64756</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>198</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>141706</v>
+        <v>2775</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,49 +1748,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>115269</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>79205</v>
+        <v>428</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>194474</v>
+        <v>428</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,102 +1799,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>258</v>
+        <v>118</v>
       </c>
       <c r="D21" s="7">
-        <v>225805</v>
+        <v>98623</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>168545</v>
+        <v>71665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>483</v>
+        <v>213</v>
       </c>
       <c r="N21" s="7">
-        <v>394349</v>
+        <v>170289</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D22" s="7">
-        <v>586</v>
+        <v>86152</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="I22" s="7">
-        <v>1578</v>
+        <v>60466</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="N22" s="7">
-        <v>2164</v>
+        <v>146618</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,49 +1903,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D23" s="7">
-        <v>7095</v>
+        <v>54376</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="I23" s="7">
-        <v>2069</v>
+        <v>47219</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="N23" s="7">
-        <v>9163</v>
+        <v>101595</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,49 +1954,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
-        <v>30499</v>
+        <v>22397</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="H24" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I24" s="7">
-        <v>22055</v>
+        <v>19977</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N24" s="7">
-        <v>52554</v>
+        <v>42374</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,49 +2005,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>91161</v>
+        <v>4320</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>79110</v>
+        <v>2069</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
-        <v>234</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>170270</v>
+        <v>6389</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,49 +2056,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>137114</v>
+        <v>586</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>97735</v>
+        <v>1150</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>234849</v>
+        <v>1736</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,55 +2107,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>188</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167832</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>175</v>
+      </c>
+      <c r="I27" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>363</v>
+      </c>
+      <c r="N27" s="7">
+        <v>298712</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>146</v>
+      </c>
+      <c r="D28" s="7">
+        <v>137114</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="7">
+        <v>128</v>
+      </c>
+      <c r="I28" s="7">
+        <v>97735</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="7">
+        <v>274</v>
+      </c>
+      <c r="N28" s="7">
+        <v>234849</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>120</v>
+      </c>
+      <c r="D29" s="7">
+        <v>91161</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="7">
+        <v>114</v>
+      </c>
+      <c r="I29" s="7">
+        <v>79110</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M29" s="7">
+        <v>234</v>
+      </c>
+      <c r="N29" s="7">
+        <v>170270</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>31</v>
+      </c>
+      <c r="D30" s="7">
+        <v>30499</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="7">
+        <v>22</v>
+      </c>
+      <c r="I30" s="7">
+        <v>22055</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="7">
+        <v>53</v>
+      </c>
+      <c r="N30" s="7">
+        <v>52554</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>7095</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2069</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M31" s="7">
+        <v>12</v>
+      </c>
+      <c r="N31" s="7">
+        <v>9163</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>586</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1578</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2164</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>306</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>266455</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>270</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>202546</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>576</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>469001</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C25_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C25_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF1E5BCC-7D5D-435E-A817-70B99AAB4408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA47BE2F-0786-4B17-B77F-EAB110156A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{286A5F7B-80AB-4D71-854F-9434A8B17AE7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6878829E-4AAB-4009-A556-707F6CE3E0B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="143">
   <si>
     <t>Menores según frecuencia de ir bien en el colegio en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -95,91 +95,91 @@
     <t>51,67%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
   </si>
   <si>
     <t>52,0%</t>
   </si>
   <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
   </si>
   <si>
     <t>37,3%</t>
   </si>
   <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
   </si>
   <si>
     <t>44,5%</t>
   </si>
   <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
   </si>
   <si>
     <t>40,33%</t>
   </si>
   <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -194,10 +194,10 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>1,61%</t>
@@ -206,13 +206,13 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>3,56%</t>
+    <t>3,41%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,53%</t>
+    <t>1,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -224,241 +224,235 @@
     <t>51,33%</t>
   </si>
   <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
   </si>
   <si>
     <t>46,2%</t>
   </si>
   <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
   </si>
   <si>
     <t>32,4%</t>
   </si>
   <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>36,08%</t>
   </si>
   <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
   </si>
   <si>
     <t>34,01%</t>
   </si>
   <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
+    <t>34,69%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>2,03%</t>
   </si>
   <si>
     <t>51,46%</t>
   </si>
   <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
   </si>
   <si>
     <t>48,25%</t>
   </si>
   <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>44,97%</t>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
   </si>
   <si>
     <t>34,21%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>39,06%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
   </si>
   <si>
     <t>36,3%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>17,29%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -467,7 +461,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -882,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF8498D-E80C-43A2-B1DD-1A89640AA06A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42D9D15-09B2-4FD1-8505-3D54B90CD27A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1978,10 +1972,10 @@
         <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -1990,13 +1984,13 @@
         <v>42374</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,13 +2005,13 @@
         <v>4320</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2026,13 +2020,13 @@
         <v>2069</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2041,13 +2035,13 @@
         <v>6389</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,13 +2056,13 @@
         <v>586</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2077,13 +2071,13 @@
         <v>1150</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2092,13 +2086,13 @@
         <v>1736</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,13 +2160,13 @@
         <v>137114</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>128</v>
@@ -2181,13 +2175,13 @@
         <v>97735</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>274</v>
@@ -2196,13 +2190,13 @@
         <v>234849</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,10 +2295,10 @@
         <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,13 +2313,13 @@
         <v>7095</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -2334,13 +2328,13 @@
         <v>2069</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -2349,13 +2343,13 @@
         <v>9163</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,13 +2364,13 @@
         <v>586</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2385,13 +2379,13 @@
         <v>1578</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2400,13 +2394,13 @@
         <v>2164</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,7 +2456,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C25_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C25_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA47BE2F-0786-4B17-B77F-EAB110156A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{419BDE5E-C444-49FE-A977-B9DAD0F34BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6878829E-4AAB-4009-A556-707F6CE3E0B7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DB3F6323-86F9-4A85-95DB-AAEE27F75F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="152">
   <si>
     <t>Menores según frecuencia de ir bien en el colegio en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,22 +68,22 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>Muchísimo</t>
+    <t>Siempre</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Un Poco</t>
-  </si>
-  <si>
-    <t>Nada</t>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Nunca</t>
   </si>
   <si>
     <t>3-7</t>
@@ -92,94 +92,112 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -191,277 +209,286 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -876,7 +903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42D9D15-09B2-4FD1-8505-3D54B90CD27A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4090609-1E6C-47A6-9460-2C45AA15FE07}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1538,10 +1565,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>50962</v>
+        <v>28409</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1553,10 +1580,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I16" s="7">
-        <v>37268</v>
+        <v>41887</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1568,10 +1595,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="N16" s="7">
-        <v>88231</v>
+        <v>70296</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1589,10 +1616,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>36785</v>
+        <v>27735</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -1604,10 +1631,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I17" s="7">
-        <v>31890</v>
+        <v>39632</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -1619,10 +1646,10 @@
         <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N17" s="7">
-        <v>68675</v>
+        <v>67367</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>33</v>
@@ -1640,10 +1667,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>8102</v>
+        <v>7391</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -1655,10 +1682,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>2078</v>
+        <v>9876</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -1670,10 +1697,10 @@
         <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N18" s="7">
-        <v>10180</v>
+        <v>17267</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>42</v>
@@ -1691,10 +1718,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>2775</v>
+        <v>4390</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -1706,10 +1733,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>2863</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -1721,10 +1748,10 @@
         <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>2775</v>
+        <v>7253</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>51</v>
@@ -1748,43 +1775,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>428</v>
+        <v>5107</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>428</v>
+        <v>5107</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1793,102 +1820,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D21" s="7">
-        <v>98623</v>
+        <v>67925</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="I21" s="7">
-        <v>71665</v>
+        <v>99365</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>170289</v>
+        <v>167290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D22" s="7">
-        <v>86152</v>
+        <v>36259</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I22" s="7">
-        <v>60466</v>
+        <v>79671</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="N22" s="7">
-        <v>146618</v>
+        <v>115929</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,49 +1924,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>84</v>
+      </c>
+      <c r="D23" s="7">
+        <v>82671</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="7">
-        <v>54376</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I23" s="7">
-        <v>47219</v>
+        <v>68433</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="N23" s="7">
-        <v>101595</v>
+        <v>151105</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,49 +1975,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D24" s="7">
-        <v>22397</v>
+        <v>18852</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I24" s="7">
-        <v>19977</v>
+        <v>11899</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N24" s="7">
-        <v>42374</v>
+        <v>30751</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,46 +2029,46 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>4320</v>
+        <v>2763</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>2069</v>
+        <v>6053</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>6389</v>
+        <v>8816</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,49 +2077,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>586</v>
+        <v>1236</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I26" s="7">
-        <v>1150</v>
+        <v>6727</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M26" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N26" s="7">
-        <v>1736</v>
+        <v>7963</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,49 +2128,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>174</v>
+      </c>
+      <c r="D27" s="7">
+        <v>141780</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>188</v>
       </c>
-      <c r="D27" s="7">
-        <v>167832</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>175</v>
-      </c>
       <c r="I27" s="7">
-        <v>130880</v>
+        <v>172783</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N27" s="7">
-        <v>298712</v>
+        <v>314563</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,49 +2181,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="D28" s="7">
-        <v>137114</v>
+        <v>64668</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>128</v>
       </c>
       <c r="I28" s="7">
-        <v>97735</v>
+        <v>121557</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M28" s="7">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="N28" s="7">
-        <v>234849</v>
+        <v>186225</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,49 +2232,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>123</v>
+      </c>
+      <c r="D29" s="7">
+        <v>110406</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="7">
+        <v>129</v>
+      </c>
+      <c r="I29" s="7">
+        <v>108065</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="7">
-        <v>91161</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="7">
-        <v>114</v>
-      </c>
-      <c r="I29" s="7">
-        <v>79110</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="K29" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M29" s="7">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="N29" s="7">
-        <v>170270</v>
+        <v>218472</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,49 +2283,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D30" s="7">
-        <v>30499</v>
+        <v>26242</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H30" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I30" s="7">
-        <v>22055</v>
+        <v>21775</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M30" s="7">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="N30" s="7">
-        <v>52554</v>
+        <v>48017</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,49 +2334,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="7">
-        <v>7095</v>
+        <v>7154</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H31" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I31" s="7">
-        <v>2069</v>
+        <v>8916</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M31" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N31" s="7">
-        <v>9163</v>
+        <v>16069</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,49 +2385,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>586</v>
+        <v>1236</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I32" s="7">
-        <v>1578</v>
+        <v>11834</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="M32" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N32" s="7">
-        <v>2164</v>
+        <v>13070</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,54 +2436,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="D33" s="7">
-        <v>266455</v>
+        <v>209705</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H33" s="7">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="I33" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M33" s="7">
         <v>576</v>
       </c>
       <c r="N33" s="7">
-        <v>469001</v>
+        <v>481853</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
